--- a/DateBase/orders/Dang Nguyen_2025-7-19.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-7-19.xlsx
@@ -823,6 +823,9 @@
       <c r="G2" t="str">
         <v>0151055510555510510105530101337101101021298121515106455</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
